--- a/biology/Botanique/Silene_suecica/Silene_suecica.xlsx
+++ b/biology/Botanique/Silene_suecica/Silene_suecica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Silene suecica, le Silène de Suède, est une espèce de plante herbacée appartenant à la famille des Caryophyllacées. C'est une espèce considérée en danger par l'UICN.
 </t>
@@ -511,7 +523,9 @@
           <t>Habitat et distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'habitat de Silene suecica se situe sur les pentes rocheuses des montagnes de Suède et de Norvège, ainsi que sur les bords littoraux du Groenland, et dans certaines régions des Alpes (ouest et centre), des Apennins et des Pyrénées, jusqu'à 3 100 mètres d'altitude.
 </t>
@@ -542,7 +556,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Synonymes
 Lychnis alpina (G.Lodd.) Greuter &amp; Burdet
@@ -553,7 +569,7 @@
 Silene suecica var. oelandica (Ahlq.) Sterner, de taille moins grande et aux fleurs de couleur plus éclatante
 Silene suecica var. serpentinicola Hayek que l'on trouve dans les massifs montagneux avec des pentes en terrasses et qui est plus petite et plus mince avec des fleurs plus pâles
 Sous-espèces
-Parmi les sous-espèces, Lychnis alpina subsp. americana (Fern.) J. Feilberg, autrefois Viscaria alpina subsp. americana (Fern.), se rencontre au Groenland[2].
+Parmi les sous-espèces, Lychnis alpina subsp. americana (Fern.) J. Feilberg, autrefois Viscaria alpina subsp. americana (Fern.), se rencontre au Groenland.
 </t>
         </is>
       </c>
